--- a/Nova pasta/Planilha OK.xlsx
+++ b/Nova pasta/Planilha OK.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\pyFundamentus-mainBKP\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1405AEAF-90E5-4661-A338-BD524C09F894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48DA31F-B2DA-4550-A02D-46EB612122D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B62E4789-1E44-4F55-B14A-CD6689D69A74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{B62E4789-1E44-4F55-B14A-CD6689D69A74}"/>
   </bookViews>
   <sheets>
     <sheet name="wew2" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="indicador" sheetId="4" r:id="rId3"/>
-    <sheet name="2" sheetId="3" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="5" r:id="rId4"/>
+    <sheet name="2" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="484">
   <si>
     <t>Indicador</t>
   </si>
@@ -1331,6 +1332,150 @@
   </si>
   <si>
     <t>Definição: Percentual do patrimônio líquido em relação aos ativos totais. Fórmula: Patrimônio Líquido ÷ Ativo Total. Relevância: Avalia a estrutura de capital, indicando a proporção financiada pelos acionistas. Interpretação: Abaixo de 0,2 indica alta alavancagem, comum em crise (ex.: OIBR3). Em 2025, aumenta o risco de insolvência. Riscos: Patrimônio reduzido. Oportunidades: Reestruturação. Cuidados: Verifique alavancagem e ROE. Exemplo: MRVE3, com Patrimônio/Ativos de 0,15x. Cenário de 2025: Compare com peers (ex.: construção ~0,3</t>
+  </si>
+  <si>
+    <t>Grupo de Indicadores</t>
+  </si>
+  <si>
+    <t>Indicadores Relacionados</t>
+  </si>
+  <si>
+    <t>Ordem de Análise</t>
+  </si>
+  <si>
+    <t>Como Analisar</t>
+  </si>
+  <si>
+    <t>Cuidados e Dependências</t>
+  </si>
+  <si>
+    <t>Contexto de 2025</t>
+  </si>
+  <si>
+    <t>Liquidez e Solvência</t>
+  </si>
+  <si>
+    <t>Liquidez Corrente, P/Ativo Circulante Líquido, P/Capital de Giro</t>
+  </si>
+  <si>
+    <t>1. Liquidez Corrente → 2. P/Ativo Circulante Líquido → 3. P/Capital de Giro</t>
+  </si>
+  <si>
+    <t>Passos: 1. Verifique Liquidez Corrente para avaliar a capacidade de cobrir obrigações de curto prazo (Ativo Circulante ÷ Passivo Circulante). Faixa ideal: &gt;1,8 (ex.: ABEV3, 2x). Abaixo de 0,8 (ex.: OIBR3) indica risco de insolvência. 2. Compare com P/Ativo Circulante Líquido (Preço ÷ [Ativo Circulante - Passivo Circulante por Ação]) para verificar se o preço da ação reflete a liquidez. Valores &gt;3 sugerem subvalorização (ex.: MGLU3 em 2020, 4x); negativos indicam passivos elevados. 3. Analise P/Capital de Giro (Preço ÷ [Ativo Circulante - Passivo Circulante por Ação]) para confirmar a capacidade de financiar operações de curto prazo. Faixa ideal: 4-6 (ex.: LREN3, 5x). Interpretação Conjunta: Alta Liquidez Corrente (&gt;2) com P/Ativo Circulante Líquido e P/Capital de Giro altos (&gt;3) indica forte posição de caixa, mas pode sugerir subinvestimento (ex.: TOTS3). Baixa liquidez (&lt;1,2) com valores negativos em P/Ativo Circulante sugere risco financeiro (ex.: MRVE3). Exemplo: ABEV3 (Liquidez Corrente 1,5x, P/Ativo Circulante 2x) mostra equilíbrio, enquanto OIBR3 (0,7x, negativo) sinaliza alerta.</t>
+  </si>
+  <si>
+    <t>Cuidados: Estoques obsoletos ou recebíveis inadimplentes podem inflar o Ativo Circulante, distorcendo a Liquidez Corrente. Verifique a qualidade dos ativos (ex.: estoques &lt; 30% do Ativo Circulante) e fluxo de caixa operacional (FCO &gt; CAPEX). P/Ativo Circulante e P/Capital de Giro dependem da Liquidez Corrente; valores negativos invalidam a análise se a empresa estiver insolvente. Dependências: Combine com indicadores de alavancagem (ex.: Dívida Líquida/EBITDA) para avaliar se a liquidez suporta dívidas.</t>
+  </si>
+  <si>
+    <t>Cenário de 2025: Juros altos (10-12%) aumentam a pressão sobre obrigações de curto prazo. Setores com alta necessidade de capital de giro (ex.: varejo, MGLU3) exigem Liquidez Corrente &gt;1,8. Empresas com valores altos em P/Ativo Circulante e P/Capital de Giro (ex.: tecnologia, TOTS3) são resilientes, mas devem evitar caixa ocioso rendendo abaixo da Selic.</t>
+  </si>
+  <si>
+    <t>Alavancagem Financeira</t>
+  </si>
+  <si>
+    <t>Dívida Líquida/EBIT, Dívida Líquida/EBITDA, Dívida Líquida/Patrimônio Líquido, Patrimônio/Ativos</t>
+  </si>
+  <si>
+    <t>1. Dívida Líquida/EBITDA → 2. Dívida Líquida/EBIT → 3. Dívida Líquida/Patrimônio Líquido → 4. Patrimônio/Ativos</t>
+  </si>
+  <si>
+    <t>Passos: 1. Comece com Dívida Líquida/EBITDA para avaliar a capacidade de quitar dívidas com a geração de caixa (Dívida Líquida ÷ EBITDA). Faixa ideal: &lt;1x (ex.: WEGE3, 0,5x); &gt;3,5x é crítico (ex.: OIBR3, 4x). 2. Compare com Dívida Líquida/EBIT (Dívida Líquida ÷ EBIT) para confirmar a robustez operacional. Faixa ideal: &lt;1,5x (ex.: ABEV3, 1x); &gt;4x é arriscado (ex.: MRVE3). 3. Analise Dívida Líquida/Patrimônio Líquido para avaliar a alavancagem em relação à base acionária. Faixa ideal: &lt;0,3x (ex.: TOTS3, 0,2x); &gt;1x é crítico (ex.: CSNA3 em baixa). 4. Verifique Patrimônio/Ativos (Patrimônio Líquido ÷ Ativo Total) para entender a estrutura de capital. Faixa ideal: &gt;0,5 (ex.: ABEV3, 0,6x); &lt;0,2 é arriscado (ex.: OIBR3). Interpretação Conjunta: Baixa Dívida Líquida/EBITDA (&lt;1x) com Dívida Líquida/Patrimônio Líquido baixa (&lt;0,3x) e Patrimônio/Ativos alto (&gt;0,5) indica saúde financeira (ex.: WEGE3). Alta alavancagem em todos (&gt;3x, &gt;1x, &lt;0,2) sugere risco de default (ex.: OIBR3). Exemplo: PETR4 (Dívida/EBITDA 2x, Patrimônio/Ativos 0,4x) mostra alavancagem moderada, mas exige monitoramento.</t>
+  </si>
+  <si>
+    <t>Cuidados: EBITDA ajustado ou EBIT volátil (ex.: VALE3 em ciclos de minério) pode distorcer. Verifique cobertura de juros (EBITDA/juros &gt;3x) e estrutura da dívida (longo prazo é mais seguro). Patrimônio/Ativos baixo pode ser inflado por prejuízos acumulados. Dependências: Combine com Liquidez Corrente para avaliar solvência de curto prazo e com ROIC para verificar eficiência do capital.</t>
+  </si>
+  <si>
+    <t>Cenário de 2025: Juros altos pressionam empresas com Dívida Líquida/EBITDA &gt;2,5x, especialmente em setores cíclicos (ex.: mineração, VALE3). Empresas com Patrimônio/Ativos alto e alavancagem baixa (ex.: consumo, ABEV3) são mais resilientes. Monitore tendências macroeconômicas (ex.: preços de commodities) e planos de desalavancagem (ex.: venda de ativos).</t>
+  </si>
+  <si>
+    <t>Rentabilidade Operacional</t>
+  </si>
+  <si>
+    <t>Margem Bruta, Margem EBIT, Margem EBITDA, Margem Líquida</t>
+  </si>
+  <si>
+    <t>1. Margem Bruta → 2. Margem EBIT → 3. Margem EBITDA → 4. Margem Líquida</t>
+  </si>
+  <si>
+    <t>Passos: 1. Inicie com Margem Bruta [(Receita Líquida - CMV) ÷ Receita Líquida × 100] para avaliar eficiência na produção/venda. Faixa ideal: &gt;50% (ex.: WEGE3, 60%); &lt;15% é crítico (ex.: MGLU3 em baixa). 2. **Verifique Margem EBIT** (EBIT ÷ Receita Líquida × 100) para medir rentabilidade operacional antes de juros/impostos. Faixa ideal: &gt;25% (ex.: TOTS3, 30%); negativa é alarmante (ex.: OIBR3). 3. Compare com Margem EBITDA (EBITDA ÷ Receita Líquida × 100) para avaliar geração de caixa. Faixa ideal: &gt;30% (ex.: WEGE3, 35%); &lt;10% é preocupante (ex.: CRFB3). 4. **Analise Margem Líquida** (Lucro Líquido ÷ Receita Líquida × 100) para rentabilidade final. Faixa ideal: &gt;15% (ex.: ITUB4, 20%); negativa indica prejuízo (ex.: MRVE3). Interpretação Conjunta: Alta Margem Bruta (&gt;50%) com Margem EBIT e EBITDA altas (&gt;25%, &gt;30%) e Margem Líquida sólida (&gt;15%) indica eficiência (ex.: WEGE3). Margens baixas em todos (&lt;15%, &lt;10%, &lt;5%) sugerem ineficiência ou crise (ex.: OIBR3). Exemplo: ABEV3 (Margem Bruta 50%, Margem Líquida 12%) mostra equilíbrio; MGLU3 (Margem Bruta 20%, Margem Líquida 3%) enfrenta pressão competitiva.</t>
+  </si>
+  <si>
+    <t>Cuidados: Margens infladas por ajustes contábeis (ex.: vendas pontuais) ou promoções insustentáveis. Verifique custos fixos, fluxo de caixa operacional (FCO &gt; CAPEX), e consistência (variação &lt;15% em 5 anos). Margem Líquida depende das anteriores; negativa pode invalidar a análise. Dependências: Combine com Giro do Ativo para avaliar eficiência operacional e com ROE/ROIC para retorno sobre capital.</t>
+  </si>
+  <si>
+    <t>Cenário de 2025: Custos elevados (ex.: energia, logística) pressionam margens em setores como varejo (MGLU3). Empresas com margens altas e estáveis (ex.: tecnologia, TOTS3) são preferidas. Monitore inflação de insumos e poder de precificação (ex.: consumo defensivo, ABEV3).</t>
+  </si>
+  <si>
+    <t>Eficiência e Retorno</t>
+  </si>
+  <si>
+    <t>ROA, ROE, ROIC, Giro do Ativo</t>
+  </si>
+  <si>
+    <t>1. ROA → 2. ROE → 3. ROIC → 4. Giro do Ativo</t>
+  </si>
+  <si>
+    <t>Passos: 1. Comece com ROA (Lucro Líquido ÷ Ativo Total × 100) para avaliar eficiência dos ativos. Faixa ideal: &gt;10% (ex.: WEGE3, 15%); &lt;2% é fraco (ex.: OIBR3). 2. **Analise ROE** (Lucro Líquido ÷ Patrimônio Líquido × 100) para retorno aos acionistas. Faixa ideal: &gt;20% (ex.: ITUB4, 25%); &lt;5% é crítico (ex.: MRVE3). 3. **Verifique ROIC** (EBIT Líquido de Impostos ÷ [Dívida + Patrimônio]) para eficiência do capital investido. Faixa ideal: &gt;15% (ex.: WEGE3, 20%); &lt;5% é preocupante (ex.: CSNA3 em baixa). 4. **Compare com Giro do Ativo** (Receita Líquida ÷ Ativo Total) para produtividade dos ativos. Faixa ideal: &gt;1,2 (ex.: MGLU3, 1,5x); &lt;0,2 é crítico (ex.: OIBR3). **Interpretação Conjunta**: Alto ROA (&gt;10%), ROE (&gt;20%), e ROIC (&gt;15%) com Giro do Ativo elevado (&gt;1,2) indicam eficiência excepcional (ex.: WEGE3). Baixos valores em todos sugerem ineficiência ou crise (ex.: OIBR3). Exemplo: ITUB4 (ROE 25%, ROA 5%) é robusto; VALE3 (ROE 15%, ROA 8% em baixa) exige ciclo favorável.</t>
+  </si>
+  <si>
+    <t>Cuidados: ROE inflado por alavancagem elevada (ex.: Dívida/Patrimônio &gt;1). ROIC depende de EBIT estável. Giro do Ativo pode ser baixo em setores intensivos em capital (ex.: energia, CMIG4). Verifique fluxo de caixa livre e qualidade dos ativos. Dependências: Combine com Margem Líquida para confirmar lucratividade e com alavancagem para avaliar sustentabilidade.</t>
+  </si>
+  <si>
+    <t>Cenário de 2025: Juros altos favorecem empresas com ROE e ROIC altos (ex.: bancos, ITUB4). Setores cíclicos (ex.: mineração, VALE3) exigem análise de Giro do Ativo para confirmar recuperação. Monitore custos operacionais e eficiência.</t>
+  </si>
+  <si>
+    <t>Valuation e Retorno ao Acionista</t>
+  </si>
+  <si>
+    <t>P/L, P/VPA, EV/EBIT, EV/EBITDA, LPA, VPA, Dividend Yield (DY)</t>
+  </si>
+  <si>
+    <t>1. P/L → 2. P/VPA → 3. EV/EBIT → 4. EV/EBITDA → 5. LPA → 6. VPA → 7. DY</t>
+  </si>
+  <si>
+    <t>Passos: 1. Inicie com P/L (Preço ÷ LPA) para avaliar o preço em relação aos lucros. Faixa ideal: &lt;10x (ex.: PETR4, 8x); &gt;20x é caro (ex.: NUBR33). 2. Compare com P/VPA (Preço ÷ VPA) para verificar subvalorização patrimonial. Faixa ideal: &lt;1 (ex.: VALE3, 0,8x); &gt;2 é caro (ex.: TOTS3). 3. Analise EV/EBIT (EV ÷ EBIT) para preço em relação ao lucro operacional. Faixa ideal: &lt;8x (ex.: VALE3, 6x); &gt;15x é caro (ex.: NUBR33). 4. Confirme com EV/EBITDA (EV ÷ EBITDA) para geração de caixa. Faixa ideal: &lt;6x (ex.: PETR4, 5x); &gt;12x é caro (ex.: Tesla). 5. Verifique LPA (Lucro Líquido ÷ Ações) para lucratividade por ação. Faixa ideal: &gt;1 (ex.: WEGE3, 1,2); negativa é crítica (ex.: OIBR3). 6. Analise VPA (Patrimônio Líquido ÷ Ações) para valor contábil. Faixa ideal: alta com P/VPA &lt;1 (ex.: ITUB4). 7. **Considere DY** (Dividendos ÷ Preço × 100) para retorno de renda. Faixa ideal: &gt;6% (ex.: TAEE11, 7%); 0% indica reinvestimento (ex.: TOTS3). Interpretação Conjunta: Baixo P/L (&lt;10x), P/VPA (&lt;1), EV/EBIT (&lt;8x), e EV/EBITDA (&lt;6x) com LPA e VPA altos (&gt;1, alto) e DY sólido (&gt;4%) indicam subvalorização e retorno atrativo (ex.: VALE3 em baixa). Altos múltiplos com LPA baixo sugerem sobrevalorização (ex.: NUBR33). Exemplo: ITUB4 (P/L 10x, P/VPA 1,2x, DY 5%) é equilibrado; MGLU3 (P/L 20x, DY 0%) exige crescimento.</t>
+  </si>
+  <si>
+    <t>Cuidados: P/L e EV/EBITDA inflados por lucros pontuais ou ajustes contábeis. P/VPA depende de patrimônio líquido confiável. DY elevado (&gt;8%) pode ser insustentável (payout &gt;80%). Verifique CAGR de lucros (&gt;15%) e fluxo de caixa livre. Dependências: Combine com ROE/ROIC para confirmar retorno e com alavancagem para sustentabilidade.</t>
+  </si>
+  <si>
+    <t>Cenário de 2025: Juros altos comprimem múltiplos (P/L, EV/EBITDA), favorecendo empresas com P/L &lt;10x e DY &gt;6% (ex.: utilities, TAEE11). Setores cíclicos (ex.: PETR4) exigem LPA e VPA altos para justificar investimento. Monitore tendências setoriais e governança.</t>
+  </si>
+  <si>
+    <t>Crescimento e Sustentabilidade</t>
+  </si>
+  <si>
+    <t>CAGR Lucros 5 anos, ROIC</t>
+  </si>
+  <si>
+    <t>1. CAGR Lucros 5 anos → 2. ROIC</t>
+  </si>
+  <si>
+    <t>Passos: 1. Avalie CAGR Lucros 5 anos [(Lucro Final ÷ Lucro Inicial)^(1/5) - 1 × 100] para crescimento sustentável. Faixa ideal: &gt;15% (ex.: WEGE3, 20%); &lt;5% é fraco (ex.: OIBR3). 2. **Compare com ROIC** (EBIT Líquido de Impostos ÷ [Dívida + Patrimônio]) para eficiência do capital. Faixa ideal: &gt;15% (ex.: TOTS3, 20%); &lt;5% é crítico (ex.: MRVE3). **Interpretação Conjunta**: Alto CAGR (&gt;15%) com ROIC elevado (&gt;15%) indica crescimento sustentável e eficiente (ex.: WEGE3). Baixo CAGR (&lt;5%) com ROIC baixo (&lt;5%) sugere estagnação ou ineficiência (ex.: OIBR3). Exemplo: TOTS3 (CAGR 18%, ROIC 20%) mostra crescimento robusto; CSNA3 (CAGR 5%, ROIC 8% em baixa) exige recuperação.</t>
+  </si>
+  <si>
+    <t>Cuidados: CAGR inflado por lucros pontuais (ex.: vendas de ativos). ROIC depende de EBIT estável. Verifique fluxo de caixa livre e consistência dos lucros (variação &lt;15% em 5 anos). Dependências: Combine com P/L e EV/EBITDA para avaliar se o crescimento justifica o valuation.</t>
+  </si>
+  <si>
+    <t>Cenário de 2025: Empresas com CAGR &gt;15% e ROIC &gt;15% (ex.: tecnologia, TOTS3) são atrativas em um cenário de juros altos. Setores cíclicos (ex.: VALE3) exigem análise de ciclos para confirmar crescimento. Monitore inovação e barreiras de entrada.</t>
+  </si>
+  <si>
+    <t>Avaliação de Receita</t>
+  </si>
+  <si>
+    <t>PSR, Giro do Ativo</t>
+  </si>
+  <si>
+    <t>1. PSR → 2. Giro do Ativo</t>
+  </si>
+  <si>
+    <t>Passos: 1. Comece com PSR (Valor de Mercado ÷ Receita Líquida) para avaliar o preço em relação às vendas. Faixa ideal: &lt;1x (ex.: VALE3, 0,8x); &gt;3x é caro (ex.: NUBR33). 2. Compare com Giro do Ativo (Receita Líquida ÷ Ativo Total) para eficiência na geração de receita. Faixa ideal: &gt;1,2 (ex.: MGLU3, 1,5x); &lt;0,2 é crítico (ex.: OIBR3). Interpretação Conjunta: Baixo PSR (&lt;1x) com Giro do Ativo alto (&gt;1,2) indica subvalorização e eficiência (ex.: LREN3). Alto PSR (&gt;3x) com Giro baixo (&lt;0,4) sugere sobrevalorização ou ineficiência (ex.: startups). Exemplo: ABEV3 (PSR 1x, Giro 1x) é equilibrado; MGLU3 (PSR 2x, Giro 1,5x) exige crescimento.</t>
+  </si>
+  <si>
+    <t>Cuidados: PSR alto pode ser justificado por margens elevadas (ex.: tecnologia). Giro do Ativo baixo é comum em setores intensivos em capital (ex.: energia, CMIG4). Verifique Margem Bruta (&gt;30%) e fluxo de caixa operacional. Dependências: Combine com Margem Líquida e ROA para confirmar rentabilidade.</t>
+  </si>
+  <si>
+    <t>Cenário de 2025: Baixo PSR (&lt;1x) é atrativo em setores cíclicos (ex.: mineração, VALE3). Alto Giro do Ativo (&gt;1,2) favorece varejo digital (ex.: MGLU3). Monitore demanda setorial e custos operacionais.</t>
   </si>
 </sst>
 </file>
@@ -3588,7 +3733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DCACDF1-9606-4C2B-9D36-A8FAC94DFE43}">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -5091,6 +5236,184 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A736F1E-914B-465E-9788-9C1FFBEF08D1}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="81.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" t="s">
+        <v>439</v>
+      </c>
+      <c r="E1" t="s">
+        <v>440</v>
+      </c>
+      <c r="F1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" t="s">
+        <v>451</v>
+      </c>
+      <c r="E3" t="s">
+        <v>452</v>
+      </c>
+      <c r="F3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>454</v>
+      </c>
+      <c r="B4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" t="s">
+        <v>456</v>
+      </c>
+      <c r="D4" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" t="s">
+        <v>458</v>
+      </c>
+      <c r="F4" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B6" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" t="s">
+        <v>469</v>
+      </c>
+      <c r="E6" t="s">
+        <v>470</v>
+      </c>
+      <c r="F6" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" t="s">
+        <v>481</v>
+      </c>
+      <c r="E8" t="s">
+        <v>482</v>
+      </c>
+      <c r="F8" t="s">
+        <v>483</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA616553-6F74-4E0F-9BB5-34A8318FF50A}">
   <dimension ref="A1:E141"/>
   <sheetViews>

--- a/Nova pasta/Planilha OK.xlsx
+++ b/Nova pasta/Planilha OK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Financeiro\GIT2\pyFundamentus-mainBKP\Nova pasta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48DA31F-B2DA-4550-A02D-46EB612122D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0ED455-E8A8-4779-80C6-AA43530338C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{B62E4789-1E44-4F55-B14A-CD6689D69A74}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{B62E4789-1E44-4F55-B14A-CD6689D69A74}"/>
   </bookViews>
   <sheets>
     <sheet name="wew2" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="indicador" sheetId="4" r:id="rId3"/>
     <sheet name="Planilha1" sheetId="5" r:id="rId4"/>
     <sheet name="2" sheetId="3" r:id="rId5"/>
+    <sheet name="Planilha2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="491">
   <si>
     <t>Indicador</t>
   </si>
@@ -1476,6 +1477,27 @@
   </si>
   <si>
     <t>Cenário de 2025: Baixo PSR (&lt;1x) é atrativo em setores cíclicos (ex.: mineração, VALE3). Alto Giro do Ativo (&gt;1,2) favorece varejo digital (ex.: MGLU3). Monitore demanda setorial e custos operacionais.</t>
+  </si>
+  <si>
+    <t># Grade de Indicadores Financeiros com Classificação por Faixas</t>
+  </si>
+  <si>
+    <t>| Indicador           | Categoria | Faixa de Referência | Interpretação                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                     | Agrupador     |</t>
+  </si>
+  <si>
+    <t>|---------------------|----------|---------------------|-----------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------------|---------------|</t>
+  </si>
+  <si>
+    <t>| Dívida Líquida/EBIT | Péssimo  | Acima de 4x         | Endividamento crítico, alto risco de insolvência: Um índice Dívida Líquida/EBIT acima de 4x indica que a empresa levaria mais de 4 anos de lucro operacional antes de juros e impostos (EBIT) para quitar sua dívida líquida (dívida total menos caixa e equivalentes). Esse nível de alavancagem é extremamente arriscado, pois reflete dependência excessiva de financiamento externo e vulnerabilidade a choques econômicos, como aumento de taxas de juros ou recessões. Setores comuns: Empresas em crise financeira (ex.: varejo em declínio, companhias aéreas em períodos de baixa demanda) ou setores intensivos em capital com investimentos mal planejados (ex.: construção civil em recessão). Implicações para investidores: Evitar investimento, salvo em casos de reestruturação robusta com sinais claros de recuperação, como redução de custos ou venda de ativos. Fatores a analisar: Cobertura de juros (EBIT/juros), fluxo de caixa livre, volatilidade do EBIT e tendências setoriais. Cenário prático: Uma empresa com Dívida Líquida/EBIT de 5x pode enfrentar dificuldades em refinanciar dívidas em um ambiente de crédito restritivo, aumentando o risco de default. | Endividamento |</t>
+  </si>
+  <si>
+    <t>| Dívida Líquida/EBIT | Ruim     | 3 a 4x              | Endividamento elevado, risco financeiro significativo: A empresa levaria de 3 a 4 anos de EBIT para pagar sua dívida líquida, indicando alta alavancagem. Esse nível é tolerável em setores com fluxos de caixa estáveis, mas arriscado em setores cíclicos. Setores comuns: Infraestrutura, siderurgia ou empresas em fase de expansão com dívidas elevadas. Implicações para investidores: Cautela é necessária; o investimento pode ser considerado se houver evidências de EBIT estável ou plano de desalavancagem. Fatores a analisar: Consistência do EBIT, capacidade de geração de caixa, cronograma de vencimento das dívidas e exposição a riscos macroeconômicos (ex.: aumento de juros). Cenário prático: Uma empresa com Dívida Líquida/EBIT de 3,5x em um setor cíclico (ex.: mineração) pode enfrentar dificuldades em períodos de baixa nos preços das commodities, reduzindo o EBIT e comprometendo a capacidade de pagamento. Investidores devem exigir um plano claro de redução de dívidas ou hedge contra volatilidade. | Endividamento |</t>
+  </si>
+  <si>
+    <t>| Dívida Líquida/EBIT | Moderado | 1,5 a 3x            | Endividamento moderado, gestão financeira razoável: A dívida líquida é pagável em 1,5 a 3 anos de EBIT, um nível aceitável para empresas em setores estáveis com fluxos de caixa previsíveis. Setores comuns: Utilities (energia, saneamento), bens de consumo defensivo ou indústrias com margens consistentes. Implicações para investidores: Um investimento relativamente seguro, desde que o EBIT seja estável e o fluxo de caixa livre cubra os pagamentos de juros e principal. Fatores a analisar: Histórico de EBIT, qualidade do fluxo de caixa livre, nível de endividamento em relação a peers setoriais e riscos operacionais. Cenário prático: Uma empresa de energia com Dívida Líquida/EBIT de 2x pode ser vista como estável, especialmente se opera em um setor regulado com receitas garantidas. Contudo, choques regulatórios ou aumento de custos operacionais podem pressionar o EBIT, exigindo monitoramento contínuo. | Endividamento |</t>
+  </si>
+  <si>
+    <t>| Dívida Líquida/EBIT | Bom</t>
   </si>
 </sst>
 </file>
@@ -5239,7 +5261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A736F1E-914B-465E-9788-9C1FFBEF08D1}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
@@ -5418,7 +5440,7 @@
   <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7487,4 +7509,54 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA6DAB9-75D6-472E-841E-5A612C17C31C}">
+  <dimension ref="A2:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>490</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>